--- a/Algemeen/Logboek/Logboek Jens Verstappen.xlsx
+++ b/Algemeen/Logboek/Logboek Jens Verstappen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\Code\S4\PTT\PTT41\Algemeen\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441DF811-63C5-40B8-B75B-3C8667FF0BFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33808C72-54BE-4A2D-B3EE-21E07D296022}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,11 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -466,15 +471,15 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -489,7 +494,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -508,7 +513,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -533,7 +538,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -567,7 +572,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -601,7 +606,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -612,20 +617,20 @@
         <v>5</v>
       </c>
       <c r="D6" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="10">
         <f xml:space="preserve"> D6 - B6 - F6</f>
-        <v>-9</v>
+        <v>5</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>5</v>
@@ -635,18 +640,18 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>7</v>
       </c>
       <c r="B7" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>5</v>
@@ -659,7 +664,7 @@
       </c>
       <c r="H7" s="10">
         <f xml:space="preserve"> D7 - B7 - F7</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>5</v>
@@ -669,7 +674,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -703,7 +708,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -737,7 +742,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>10</v>
       </c>
@@ -771,7 +776,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -805,7 +810,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -839,7 +844,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -873,7 +878,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -907,7 +912,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>15</v>
       </c>
@@ -941,7 +946,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>16</v>
       </c>
@@ -975,7 +980,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -1009,7 +1014,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1048,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1082,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -1111,7 +1116,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1145,7 +1150,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1179,34 +1184,34 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="5">
         <f>B4 + B5 + B6 + B7 + B8 + B9 + B11 + B12 + B13 + B14 + B15 + B16 + B17 + B18 + B19 + B20 + B21 + B22</f>
-        <v>28.5</v>
+        <v>37.5</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>29.5</v>
+        <v>59.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="5">
         <f>F4 + F5 + F6 + F7 + F8 + F9 + F10 + F11 + F12 + F13 + F14+ F15 + F16 + F17 + F18 + F19 + F20 + F21 + F22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>
@@ -1216,7 +1221,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1231,7 +1236,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1246,7 +1251,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1261,7 +1266,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1276,7 +1281,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M28" s="1"/>
     </row>
   </sheetData>

--- a/Algemeen/Logboek/Logboek Jens Verstappen.xlsx
+++ b/Algemeen/Logboek/Logboek Jens Verstappen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cihan\OneDrive - Office 365 Fontys\School\Semester 4\PTT41\Algemeen\Logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\Code\S4\PTT\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33808C72-54BE-4A2D-B3EE-21E07D296022}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3A48F3-D3B1-4F73-BFE6-EF5DB8402FDB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9528" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,15 +471,15 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -494,7 +494,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -513,7 +513,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -538,7 +538,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -572,7 +572,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -606,7 +606,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -640,7 +640,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -674,18 +674,18 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
       <c r="B8" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>5</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="H8" s="10">
         <f xml:space="preserve"> D8 - B8 - F8</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="10" t="s">
         <v>5</v>
@@ -708,7 +708,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>9</v>
       </c>
@@ -742,31 +742,31 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>10</v>
       </c>
       <c r="B10" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="10">
         <f xml:space="preserve"> D10 - B10- F10</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>5</v>
@@ -776,7 +776,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>11</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>12</v>
       </c>
@@ -844,7 +844,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>13</v>
       </c>
@@ -878,7 +878,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>14</v>
       </c>
@@ -912,7 +912,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>15</v>
       </c>
@@ -946,7 +946,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>16</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>17</v>
       </c>
@@ -1014,7 +1014,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1048,7 +1048,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1116,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
@@ -1150,7 +1150,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -1184,34 +1184,34 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="5">
         <f>B4 + B5 + B6 + B7 + B8 + B9 + B11 + B12 + B13 + B14 + B15 + B16 + B17 + B18 + B19 + B20 + B21 + B22</f>
-        <v>37.5</v>
+        <v>46.5</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>59.5</v>
+        <v>89.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="5">
         <f>F4 + F5 + F6 + F7 + F8 + F9 + F10 + F11 + F12 + F13 + F14+ F15 + F16 + F17 + F18 + F19 + F20 + F21 + F22</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>
@@ -1221,7 +1221,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1236,7 +1236,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1251,7 +1251,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1266,7 +1266,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1281,7 +1281,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M28" s="1"/>
     </row>
   </sheetData>

--- a/Algemeen/Logboek/Logboek Jens Verstappen.xlsx
+++ b/Algemeen/Logboek/Logboek Jens Verstappen.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\Code\S4\PTT\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3A48F3-D3B1-4F73-BFE6-EF5DB8402FDB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE8C650-325F-4898-8D8C-0D67B4085BC2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -471,7 +471,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,26 +713,26 @@
         <v>9</v>
       </c>
       <c r="B9" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H9" s="10">
         <f xml:space="preserve"> D9- B9 - F9</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>5</v>
@@ -747,26 +747,26 @@
         <v>10</v>
       </c>
       <c r="B10" s="8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="9">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H10" s="10">
         <f xml:space="preserve"> D10 - B10- F10</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>5</v>
@@ -781,26 +781,26 @@
         <v>11</v>
       </c>
       <c r="B11" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" ref="H11:H19" si="0" xml:space="preserve"> D11 - B11 - F11</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>5</v>
@@ -1190,28 +1190,28 @@
       </c>
       <c r="B23" s="5">
         <f>B4 + B5 + B6 + B7 + B8 + B9 + B11 + B12 + B13 + B14 + B15 + B16 + B17 + B18 + B19 + B20 + B21 + B22</f>
-        <v>46.5</v>
+        <v>64.5</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>89.5</v>
+        <v>102.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="5">
         <f>F4 + F5 + F6 + F7 + F8 + F9 + F10 + F11 + F12 + F13 + F14+ F15 + F16 + F17 + F18 + F19 + F20 + F21 + F22</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Jens Verstappen.xlsx
+++ b/Algemeen/Logboek/Logboek Jens Verstappen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\Code\S4\PTT\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE8C650-325F-4898-8D8C-0D67B4085BC2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82130A9-D113-4032-9EA6-AFEE475A4345}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -471,7 +472,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,13 +816,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>5</v>
@@ -834,7 +835,7 @@
       </c>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>5</v>
@@ -1190,14 +1191,14 @@
       </c>
       <c r="B23" s="5">
         <f>B4 + B5 + B6 + B7 + B8 + B9 + B11 + B12 + B13 + B14 + B15 + B16 + B17 + B18 + B19 + B20 + B21 + B22</f>
-        <v>64.5</v>
+        <v>73.5</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>102.5</v>
+        <v>116.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
@@ -1211,7 +1212,7 @@
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Jens Verstappen.xlsx
+++ b/Algemeen/Logboek/Logboek Jens Verstappen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\Code\S4\PTT\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82130A9-D113-4032-9EA6-AFEE475A4345}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66D515C-3838-4BD0-8789-78521BE41FE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,13 +850,13 @@
         <v>13</v>
       </c>
       <c r="B13" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>5</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>5</v>
@@ -1191,14 +1191,14 @@
       </c>
       <c r="B23" s="5">
         <f>B4 + B5 + B6 + B7 + B8 + B9 + B11 + B12 + B13 + B14 + B15 + B16 + B17 + B18 + B19 + B20 + B21 + B22</f>
-        <v>73.5</v>
+        <v>82.5</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>116.5</v>
+        <v>131.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Jens Verstappen.xlsx
+++ b/Algemeen/Logboek/Logboek Jens Verstappen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\Code\S4\PTT\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66D515C-3838-4BD0-8789-78521BE41FE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC456E6-4083-4B1D-8C06-888EBA1BB271}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>5</v>
@@ -903,7 +903,7 @@
       </c>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>5</v>
@@ -1191,14 +1191,14 @@
       </c>
       <c r="B23" s="5">
         <f>B4 + B5 + B6 + B7 + B8 + B9 + B11 + B12 + B13 + B14 + B15 + B16 + B17 + B18 + B19 + B20 + B21 + B22</f>
-        <v>82.5</v>
+        <v>91.5</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>131.5</v>
+        <v>143.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>

--- a/Algemeen/Logboek/Logboek Jens Verstappen.xlsx
+++ b/Algemeen/Logboek/Logboek Jens Verstappen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\Code\S4\PTT\PTT41\Algemeen\Logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC456E6-4083-4B1D-8C06-888EBA1BB271}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4008FA-E1C2-4E5F-832A-3849454BB25A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{1FDE790C-1098-453A-B25A-4B8D392970A4}"/>
   </bookViews>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78840537-239C-47B0-A4CC-46A5360523B1}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,26 +918,26 @@
         <v>15</v>
       </c>
       <c r="B15" s="8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>5</v>
       </c>
       <c r="F15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>5</v>
@@ -1191,28 +1191,28 @@
       </c>
       <c r="B23" s="5">
         <f>B4 + B5 + B6 + B7 + B8 + B9 + B11 + B12 + B13 + B14 + B15 + B16 + B17 + B18 + B19 + B20 + B21 + B22</f>
-        <v>91.5</v>
+        <v>100.5</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6">
         <f>D4 + D5 + D6 + D7 + D8 + D9 + D10 + D11 + D12 + D13 + D14 + D15 + D16 + D17 + D18 + D19 + D20 + D21 + D22</f>
-        <v>143.5</v>
+        <v>158.5</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F23" s="5">
         <f>F4 + F5 + F6 + F7 + F8 + F9 + F10 + F11 + F12 + F13 + F14+ F15 + F16 + F17 + F18 + F19 + F20 + F21 + F22</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H23" s="7">
         <f xml:space="preserve"> H4 + H5 + H6 + H7 + H8 + H9 + H10 + H11 + H12 + H13 + H14 + H15 + H16 + H17 + H18 + H19 + H20 + H21 + H22</f>
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>5</v>
